--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44021,6 +44021,43 @@
         </is>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44058,6 +44058,43 @@
         </is>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44095,6 +44095,43 @@
         </is>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44132,6 +44132,43 @@
         </is>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44169,6 +44169,43 @@
         </is>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44206,6 +44206,43 @@
         </is>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44243,6 +44243,43 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44280,6 +44280,80 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44354,6 +44354,80 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44428,6 +44428,43 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44465,6 +44465,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44502,6 +44502,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44539,6 +44539,43 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44576,6 +44576,43 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1461"/>
+  <dimension ref="A1:I1462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53433,6 +53433,43 @@
         </is>
       </c>
     </row>
+    <row r="1462">
+      <c r="A1462" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1462" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1462" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1462" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1462" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1462"/>
+  <dimension ref="A1:I1463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53470,6 +53470,43 @@
         </is>
       </c>
     </row>
+    <row r="1463">
+      <c r="A1463" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1463" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1463" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1463" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1463" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1463" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1463" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1463"/>
+  <dimension ref="A1:I1464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53507,6 +53507,41 @@
         </is>
       </c>
     </row>
+    <row r="1464">
+      <c r="A1464" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1464" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1464" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1464" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1464"/>
+  <dimension ref="A1:I1465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53542,6 +53542,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1465">
+      <c r="A1465" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1465" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1465" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1465" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1465" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1465"/>
+  <dimension ref="A1:I1466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53579,6 +53579,43 @@
         </is>
       </c>
     </row>
+    <row r="1466">
+      <c r="A1466" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1466" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1466" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1466" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1466" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1466" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1466"/>
+  <dimension ref="A1:I1467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53616,6 +53616,43 @@
         </is>
       </c>
     </row>
+    <row r="1467">
+      <c r="A1467" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1467" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1467" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1467" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1467" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1467"/>
+  <dimension ref="A1:I1468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53653,6 +53653,43 @@
         </is>
       </c>
     </row>
+    <row r="1468">
+      <c r="A1468" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1468" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1468" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1468" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1468" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1468" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1468"/>
+  <dimension ref="A1:I1469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53690,6 +53690,41 @@
         </is>
       </c>
     </row>
+    <row r="1469">
+      <c r="A1469" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1469" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1469" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1469"/>
+  <dimension ref="A1:I1470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53725,6 +53725,43 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="1470">
+      <c r="A1470" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1470" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1470" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1470" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1470"/>
+  <dimension ref="A1:I1471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53762,6 +53762,43 @@
         </is>
       </c>
     </row>
+    <row r="1471">
+      <c r="A1471" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1471" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E1471" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1471" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2334"/>
+  <dimension ref="A1:I2335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84004,6 +84004,43 @@
         </is>
       </c>
     </row>
+    <row r="2335">
+      <c r="A2335" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E2335" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2335" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2335" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2335"/>
+  <dimension ref="A1:I2336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84041,6 +84041,43 @@
         </is>
       </c>
     </row>
+    <row r="2336">
+      <c r="A2336" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E2336" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2336" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2336" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2336"/>
+  <dimension ref="A1:I2337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84078,6 +84078,41 @@
         </is>
       </c>
     </row>
+    <row r="2337">
+      <c r="A2337" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E2337" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2337" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2337" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2337"/>
+  <dimension ref="A1:I2338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84113,6 +84113,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2338">
+      <c r="A2338" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E2338" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2338" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2338" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2338" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2338"/>
+  <dimension ref="A1:I2339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84150,6 +84150,41 @@
         </is>
       </c>
     </row>
+    <row r="2339">
+      <c r="A2339" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E2339" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2339" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2339" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2339" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2339"/>
+  <dimension ref="A1:I2340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84185,6 +84185,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2340">
+      <c r="A2340" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E2340" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2340" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2340" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2340" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2340"/>
+  <dimension ref="A1:I2341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84222,6 +84222,43 @@
         </is>
       </c>
     </row>
+    <row r="2341">
+      <c r="A2341" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E2341" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2341" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2341" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2341"/>
+  <dimension ref="A1:I2343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84259,6 +84259,78 @@
         </is>
       </c>
     </row>
+    <row r="2342">
+      <c r="A2342" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D2342" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E2342" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2342" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2342" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2342" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D2343" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E2343" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2343" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2343" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2343" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2343"/>
+  <dimension ref="A1:I2344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84331,6 +84331,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2344">
+      <c r="A2344" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D2344" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E2344" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2344" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2344" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2344" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2344"/>
+  <dimension ref="A1:I2346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84368,6 +84368,80 @@
         </is>
       </c>
     </row>
+    <row r="2345">
+      <c r="A2345" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D2345" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E2345" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2345" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2345" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2345" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D2346" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E2346" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2346" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2346" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2346" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2346" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2346"/>
+  <dimension ref="A1:I2347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84442,6 +84442,43 @@
         </is>
       </c>
     </row>
+    <row r="2347">
+      <c r="A2347" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D2347" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E2347" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2347" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2347" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2347" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2347" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2347"/>
+  <dimension ref="A1:I2348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84479,6 +84479,43 @@
         </is>
       </c>
     </row>
+    <row r="2348">
+      <c r="A2348" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E2348" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2348" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2348" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2348" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7115.xlsx
+++ b/data/7115.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2348"/>
+  <dimension ref="A1:I2349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84516,6 +84516,43 @@
         </is>
       </c>
     </row>
+    <row r="2349">
+      <c r="A2349" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>SKBSHUT</t>
+        </is>
+      </c>
+      <c r="E2349" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2349" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2349" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2349" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
